--- a/scalpel/typeinfer/evaluation/evaluation_outputs/chubin__cheat.sh.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/chubin__cheat.sh.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
@@ -2822,15 +2822,29 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr"/>
       <c r="B75" s="2" t="inlineStr"/>
-      <c r="C75" s="2" t="inlineStr"/>
-      <c r="D75" s="2" t="inlineStr"/>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr"/>
+      <c r="B76" s="2" t="inlineStr"/>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F75" s="2" t="n">
-        <v>42.86</v>
+      <c r="F76" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/chubin__cheat.sh.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/chubin__cheat.sh.xlsx
@@ -2822,16 +2822,16 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr"/>
       <c r="B75" s="2" t="inlineStr"/>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="n">
+        <v>91.67</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr"/>
@@ -2840,7 +2840,7 @@
       <c r="D76" s="2" t="inlineStr"/>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
